--- a/Popa_Doroteea/lab5.xlsx
+++ b/Popa_Doroteea/lab5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\facultate\an4_sem1_2023\SOAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F351F43C-5527-4954-916E-5A61E0E2FDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1827A1DA-7725-4157-8FF1-7211644CB7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t xml:space="preserve">exercitiul 1 </t>
   </si>
@@ -116,96 +116,16 @@
   <si>
     <t>cache_size = 4KB, bloc_size 4096</t>
   </si>
-  <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>14.05</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>21.04</t>
-  </si>
-  <si>
-    <t>16.97</t>
-  </si>
-  <si>
-    <t>7.44</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>8.03</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>5.14</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>5.68</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>36.13</t>
-  </si>
-  <si>
-    <t>44.93</t>
-  </si>
-  <si>
-    <t>25.15</t>
-  </si>
-  <si>
-    <t>33.51</t>
-  </si>
-  <si>
-    <t>37.87</t>
-  </si>
-  <si>
-    <t>62.05</t>
-  </si>
-  <si>
-    <t>44.23</t>
-  </si>
-  <si>
-    <t>58.11</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>53.97</t>
-  </si>
-  <si>
-    <t>43.5</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.00_ ;\-0.00\ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +135,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,15 +164,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -259,6 +190,4210 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>exercitiul 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache size=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.565000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.244999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.603000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB99-46FC-9BB2-34F2C6C72622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache size=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.566000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9886999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.409000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB99-46FC-9BB2-34F2C6C72622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache size=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4932999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6468999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6372999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB99-46FC-9BB2-34F2C6C72622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache size=16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4987000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4028999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6238999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DB99-46FC-9BB2-34F2C6C72622}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1108844655"/>
+        <c:axId val="1152670703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1108844655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1152670703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1152670703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108844655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>exercitiul 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bloc_SIZE=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$9:$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ ;\-0.00\ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0310-4498-92BA-320FF6D4493D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bloc_SIZE=16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$9:$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ ;\-0.00\ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0310-4498-92BA-320FF6D4493D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bloc_SIZE=32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$9:$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ ;\-0.00\ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0310-4498-92BA-320FF6D4493D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bloc_SIZE=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$9:$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ ;\-0.00\ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0310-4498-92BA-320FF6D4493D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1108854255"/>
+        <c:axId val="1152871135"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1108854255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1152871135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1152871135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ ;\-0.00\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108854255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Exercitiul</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ro-RO" baseline="0"/>
+              <a:t> 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache_size = 4KB, bloc_size 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.15</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>25.94</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>62.155999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.3416999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.8674999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B49-421E-B383-C4BC83164679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache_size = 4KB, bloc_size 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.81</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16.184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>13.369</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>11.497999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>17.507999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B49-421E-B383-C4BC83164679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache_size = 4KB, bloc_size 1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>8.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>10.566000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6.9886999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>11.409000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B49-421E-B383-C4BC83164679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache_size = 4KB, bloc_size 4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.95</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>12.022</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>13.525</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>8.9644999999999992</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>13.919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6B49-421E-B383-C4BC83164679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache_size = 16KB, bloc_size 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.5649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.4500999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.3416999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.8674999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6B49-421E-B383-C4BC83164679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache_size = 16KB, bloc_size256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>13.595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>9.1644000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>9.5498999999999992</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>11.993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6B49-421E-B383-C4BC83164679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache_size = 16KB, bloc_size 1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>4.5949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>5.4987000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.4028999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>6.6238999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6B49-421E-B383-C4BC83164679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cache_size = 16KB, bloc_size 4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cexp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>comp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hydro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mdljd</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nasa7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>swm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ucomp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.8814000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>5.2750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>5.6901000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6B49-421E-B383-C4BC83164679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="379420351"/>
+        <c:axId val="486687039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="379420351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486687039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486687039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="379420351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6AC3C1-79C8-E59A-3EBE-0E72B8DF9098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89537113-ABBE-1CE4-8854-97DCBBAFA64B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5322CDCF-C674-7704-42D5-6C231680A89F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +4677,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -577,31 +4712,31 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C3" s="1">
+        <v>14.05</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="E3" s="1">
+        <v>21.04</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16.97</v>
+      </c>
+      <c r="G3" s="1">
         <v>19.565000000000001</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>16.28</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>15.535</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>10.244999999999999</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>16.603000000000002</v>
       </c>
     </row>
@@ -609,31 +4744,31 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="C4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7.44</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
         <v>8.4649999999999999</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>10.566000000000001</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>6.9886999999999997</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>11.409000000000001</v>
       </c>
     </row>
@@ -641,31 +4776,31 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C5" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>7.4932999999999996</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>7.375</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>4.6468999999999996</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>8.6372999999999998</v>
       </c>
     </row>
@@ -673,33 +4808,44 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="C6" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.68</v>
+      </c>
+      <c r="G6" s="1">
         <v>4.5949999999999998</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>5.4987000000000004</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>6.22</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>3.4028999999999998</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>6.6238999999999999</v>
       </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -707,7 +4853,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
@@ -742,81 +4888,129 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="C10" s="3">
+        <v>3.81</v>
+      </c>
+      <c r="D10" s="3">
+        <v>33.51</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>53.97</v>
+      </c>
+      <c r="G10" s="3">
+        <v>41.32</v>
+      </c>
+      <c r="H10" s="3">
+        <v>47.87</v>
+      </c>
+      <c r="I10" s="3">
+        <v>51.99</v>
+      </c>
+      <c r="J10" s="3">
+        <v>34.61</v>
+      </c>
+      <c r="K10" s="3">
+        <v>43.79</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="C11" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44.23</v>
+      </c>
+      <c r="F11" s="3">
+        <v>58.11</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43.64</v>
+      </c>
+      <c r="H11" s="3">
+        <v>57.25</v>
+      </c>
+      <c r="I11" s="3">
+        <v>55.34</v>
+      </c>
+      <c r="J11" s="3">
+        <v>36.15</v>
+      </c>
+      <c r="K11" s="3">
+        <v>51.41</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="C12" s="3">
+        <v>4.22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44.93</v>
+      </c>
+      <c r="F12" s="3">
+        <v>62.05</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44.82</v>
+      </c>
+      <c r="H12" s="3">
+        <v>58.59</v>
+      </c>
+      <c r="I12" s="3">
+        <v>57.36</v>
+      </c>
+      <c r="J12" s="3">
+        <v>37.94</v>
+      </c>
+      <c r="K12" s="3">
+        <v>55.96</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="C13" s="3">
+        <v>1.31</v>
+      </c>
+      <c r="D13" s="3">
+        <v>22.7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>22.92</v>
+      </c>
+      <c r="F13" s="3">
+        <v>25.15</v>
+      </c>
+      <c r="G13" s="3">
+        <v>25.94</v>
+      </c>
+      <c r="H13" s="3">
+        <v>25.96</v>
+      </c>
+      <c r="I13" s="3">
+        <v>33.04</v>
+      </c>
+      <c r="J13" s="3">
+        <v>22.24</v>
+      </c>
+      <c r="K13" s="3">
+        <v>29.73</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -854,116 +5048,261 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="C17" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="D17" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>22.92</v>
+      </c>
+      <c r="F17" s="2">
+        <v>25.15</v>
+      </c>
+      <c r="G17" s="4">
+        <v>25.94</v>
+      </c>
+      <c r="H17" s="4">
+        <v>62.155999999999999</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2.3416999999999999</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.8674999999999999</v>
+      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="C18" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12.05</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10.79</v>
+      </c>
+      <c r="F18" s="2">
+        <v>14.81</v>
+      </c>
+      <c r="G18" s="4">
+        <v>16.184999999999999</v>
+      </c>
+      <c r="H18" s="4">
+        <v>13.369</v>
+      </c>
+      <c r="I18" s="4">
+        <v>14.07</v>
+      </c>
+      <c r="J18" s="4">
+        <v>11.497999999999999</v>
+      </c>
+      <c r="K18" s="4">
+        <v>17.507999999999999</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="C19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7.44</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4">
+        <v>8.4649999999999999</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10.566000000000001</v>
+      </c>
+      <c r="I19" s="4">
+        <v>10</v>
+      </c>
+      <c r="J19" s="4">
+        <v>6.9886999999999997</v>
+      </c>
+      <c r="K19" s="4">
+        <v>11.409000000000001</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="C20" s="2">
+        <v>19.72</v>
+      </c>
+      <c r="D20" s="2">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="E20" s="2">
+        <v>38.32</v>
+      </c>
+      <c r="F20" s="2">
+        <v>47.95</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12.022</v>
+      </c>
+      <c r="I20" s="4">
+        <v>13.525</v>
+      </c>
+      <c r="J20" s="4">
+        <v>8.9644999999999992</v>
+      </c>
+      <c r="K20" s="4">
+        <v>13.919</v>
+      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="C21" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20.95</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11.81</v>
+      </c>
+      <c r="F21" s="2">
+        <v>18.05</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3.4500999999999999</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2.3416999999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1.8674999999999999</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="C22" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7.63</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9.02</v>
+      </c>
+      <c r="G22" s="4">
+        <v>13.595000000000001</v>
+      </c>
+      <c r="H22" s="4">
+        <v>9.1644000000000005</v>
+      </c>
+      <c r="I22" s="4">
+        <v>11.64</v>
+      </c>
+      <c r="J22" s="4">
+        <v>9.5498999999999992</v>
+      </c>
+      <c r="K22" s="4">
+        <v>11.993</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="C23" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.01</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5.68</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4.5949999999999998</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5.4987000000000004</v>
+      </c>
+      <c r="I23" s="4">
+        <v>6.22</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3.4028999999999998</v>
+      </c>
+      <c r="K23" s="4">
+        <v>6.6238999999999999</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="C24" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4.04</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6.27</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6.72</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3.8814000000000002</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5.6901000000000002</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>